--- a/examples/tutorials/Address book/Address book.xlsx
+++ b/examples/tutorials/Address book/Address book.xlsx
@@ -290,10 +290,10 @@
     <t>'!!People'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables schema='Address book' objTablesVersion='0.0.9' date='2020-04-28 15:09:22'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='Address book' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-28 15:09:22' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables schema='Address book' objTablesVersion='1.0.0' date='2020-05-29 00:17:37'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='Address book' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:17:37' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -311,7 +311,7 @@
     <t>People</t>
   </si>
   <si>
-    <t>!!ObjTables schema='Address book' type='Data' tableFormat='column' class='Company' name='Companies' date='2020-04-28 15:09:22' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='Address book' type='Data' tableFormat='column' class='Company' name='Companies' date='2020-05-29 00:17:37' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -404,7 +404,7 @@
     <t>US</t>
   </si>
   <si>
-    <t>!!ObjTables schema='Address book' type='Data' tableFormat='row' class='Person' name='People' date='2020-04-28 15:09:22' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='Address book' type='Data' tableFormat='row' class='Person' name='People' date='2020-05-29 00:17:37' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Type</t>
